--- a/outputs-GTDB-r202/o__Fibrobacterales.xlsx
+++ b/outputs-GTDB-r202/o__Fibrobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -486,11 +481,6 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -512,11 +502,6 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,11 +523,6 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,11 +544,6 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -586,11 +561,6 @@
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>f__Fibrobacteraceae</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>f__Fibrobacteraceae</t>
         </is>

--- a/outputs-GTDB-r202/o__Fibrobacterales.xlsx
+++ b/outputs-GTDB-r202/o__Fibrobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>f__Fibrobacteraceae</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -561,6 +586,11 @@
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Fibrobacteraceae</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>f__Fibrobacteraceae</t>
         </is>
